--- a/ListadoCompleto.xlsx
+++ b/ListadoCompleto.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:C12"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,98 +421,267 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3">
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>TIENDA</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Cotsco</t>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>chino3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>chino2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>chino</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PRODUCTO</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CANTIDAD</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>PRODUCTO</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CANTIDAD</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>PRODUCTO</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CANTIDAD</t>
         </is>
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Marine boy Fried seasoning
+Snack sabor salsa frita</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PRODUCTO</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CANTIDAD</t>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Korean macaroni
+Frituras</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>PRODUCTO 1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
         </is>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Anchovy fish sauce 3kg
+Salsa de pescado anchoas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Crown sando crema 8pzas
-Galletas rellenas de crema 
-blanca</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Onion rings
+Frituras sabor aros de 
+cebolla</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>PRODUCTO1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PRODUCTO 2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Homerun ball
+Biscochos rellenos de 
+chocolate</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>PRODUCTO 2</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>$ 735.0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>$ 169.0</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Onion rings
+Frituras sabor aros de 
+cebolla</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TIENDA</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>My tiendita (Koreano)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>PRODUCTO</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>CANTIDAD</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Makgeolli Raw rice wine
-Vino de arroz</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Dried bracken
-Helecho real seco</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Zhawang 
-Seco de frijol fermentado 
-con salsa de ostión</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5</v>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>$ 317.5</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/ListadoCompleto.xlsx
+++ b/ListadoCompleto.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,26 +429,6 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>chino3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Nombre</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>chino2</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Nombre</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>chino</t>
         </is>
       </c>
@@ -464,223 +444,33 @@
           <t>CANTIDAD</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>PRODUCTO</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CANTIDAD</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>PRODUCTO</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>CANTIDAD</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Marine boy Fried seasoning
-Snack sabor salsa frita</t>
+          <t>Zanahoria</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Korean macaroni
-Frituras</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>PRODUCTO 1</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
+          <t>KG</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Anchovy fish sauce 3kg
-Salsa de pescado anchoas</t>
+          <t>TOTAL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.5</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Onion rings
-Frituras sabor aros de 
-cebolla</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>PRODUCTO1</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>PRODUCTO 2</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Homerun ball
-Biscochos rellenos de 
-chocolate</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>PRODUCTO 2</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>$ 735.0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>$ 169.0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Onion rings
-Frituras sabor aros de 
-cebolla</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>$ 317.5</t>
+          <t>$ 0.0</t>
         </is>
       </c>
     </row>

--- a/ListadoCompleto.xlsx
+++ b/ListadoCompleto.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A4:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,54 +421,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Nombre</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>chino</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>PRODUCTO</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CANTIDAD</t>
-        </is>
-      </c>
-    </row>
     <row r="4">
       <c r="A4" t="inlineStr">
-        <is>
-          <t>Zanahoria</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>$ 0.0</t>
         </is>

--- a/ListadoCompleto.xlsx
+++ b/ListadoCompleto.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A4:B4"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,16 +421,800 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>tiendax</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>$ 910.0</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>tienditadiego</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>$ 2061.3999999999996</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>tiendasabine</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>$ 2098.0</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>tiendaelisa</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>$ 780.0</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>$ 1833.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PRODUCTO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CANTIDAD</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>PRODUCTO</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>CANTIDAD</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>PRODUCTO</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>CANTIDAD</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>PRODUCTO</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>CANTIDAD</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>PRODUCTO</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>CANTIDAD</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>SUBTOTAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>最少兩周前預訂</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>380.0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>最少兩周前預訂</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>380.0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1799999999999997</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>vinagre</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>pan caja  de frijol</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>WhalMyungSu Carbonated herbs 
+drink box 10 bottles
+Bebida carbonatada de hiervas</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>380.0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v>1140</v>
+      </c>
+    </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Semilla Roja</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$ 0.0</t>
-        </is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Berenjena </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>puepura</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>rollo de chocolate</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Vino de arroz 500 ml</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Yakult 12pzas</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>soya dulce</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>最少兩周前預訂</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>380.0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Udon noodles
+Fideos gruesos</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierna y muslo de pollo </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Work gloves 10 pairsGuantes de trabajo 10 pares</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>pauzi</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>calamar</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Wasabi tubeWasab</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Yakult 12pzas</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Camaron crudo</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Soju box 20 bottlesCaja de soju 20 botellas</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1300.0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Coca cola de 3 LITROSS</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>LITROS</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sal</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Tofu grueso fresco en caja</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Panza de res</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>manzana amarillo</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Vietnam pho
+Fideos de arroz estilo pho 
+vietnamita poco picante</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/ListadoCompleto.xlsx
+++ b/ListadoCompleto.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:AC15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,42 +432,42 @@
           <t>$ 910.0</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>tienditadiego</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>$ 2061.3999999999996</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>tiendasabine</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>$ 2098.0</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>tiendaelisa</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>$ 780.0</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>admin</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>$ 1833.0</t>
         </is>
@@ -487,26 +487,25 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
+          <t>SUBTOTAL</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>PRODUCTO</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>CANTIDAD</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>PRODUCTO</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>CANTIDAD</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
+          <t>SUBTOTAL</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
           <t>PRODUCTO</t>
@@ -520,16 +519,37 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
+          <t>SUBTOTAL</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
           <t>PRODUCTO</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>CANTIDAD</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr">
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>SUBTOTAL</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>PRODUCTO</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>CANTIDAD</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr">
         <is>
           <t>SUBTOTAL</t>
         </is>
@@ -556,89 +576,101 @@
           <t>PIEZAS</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>760</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>最少兩周前預訂</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>380.0</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>2.1799999999999997</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>828.3999999999999</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>vinagre</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>68.0</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>68</v>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>pan caja  de frijol</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>45.0</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>WhalMyungSu Carbonated herbs 
 drink box 10 bottles
 Bebida carbonatada de hiervas</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>380.0</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="U3" t="n">
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="AC3" t="n">
         <v>1140</v>
       </c>
     </row>
@@ -663,557 +695,599 @@
           <t>KG</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>150</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve">Berenjena </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>1.64</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>puepura</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>110.0</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>220</v>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>rollo de chocolate</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>Vino de arroz 500 ml</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>99.0</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="U4" t="n">
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="AC4" t="n">
         <v>198</v>
       </c>
     </row>
     <row r="5">
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Yakult 12pzas</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>75.0</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>750</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>soya dulce</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>140.0</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>140</v>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>最少兩周前預訂</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>380.0</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="W5" t="n">
+        <v>380</v>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>Udon noodles
 Fideos gruesos</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>99.0</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="U5" t="n">
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="AC5" t="n">
         <v>495</v>
       </c>
     </row>
     <row r="6">
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierna y muslo de pollo </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>Work gloves 10 pairsGuantes de trabajo 10 pares</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>125.0</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>250</v>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>pauzi</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>90.0</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
         <v>180</v>
       </c>
     </row>
     <row r="7">
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>calamar</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>Wasabi tubeWasab</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>120.0</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>120</v>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>Yakult 12pzas</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>75.0</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="W7" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="8">
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Camaron crudo</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>556</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>Soju box 20 bottlesCaja de soju 20 botellas</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>1300.0</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
         <v>1300</v>
       </c>
     </row>
     <row r="9">
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Coca cola de 3 LITROSS</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>LITROS</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Sal</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>Tofu grueso fresco en caja</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="Q10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>78.0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Panza de res</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>manzana amarillo</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>0.66</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Piña</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>-1</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>-0</v>
       </c>
     </row>
     <row r="15">
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Vietnam pho
 Fideos de arroz estilo pho 
 vietnamita poco picante</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>69.0</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>7.0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PIEZAS</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>483</v>
       </c>
     </row>

--- a/ListadoCompleto.xlsx
+++ b/ListadoCompleto.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC15"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,17 +429,17 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>$ 910.0</t>
+          <t>$ 0.0</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>tienditadiego</t>
+          <t>tiendagabriela</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>$ 2061.3999999999996</t>
+          <t>$ 0.0</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
@@ -449,7 +449,7 @@
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>$ 2098.0</t>
+          <t>$ 0.0</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>$ 780.0</t>
+          <t>$ 0.0</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
@@ -469,7 +469,7 @@
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>$ 1833.0</t>
+          <t>$ 200.0</t>
         </is>
       </c>
     </row>
@@ -558,136 +558,134 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>最少兩周前預訂</t>
+          <t xml:space="preserve">pollo entero </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>380.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>pata de pollo</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierna sin  muslo de pollo </t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>molleja de pollo</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>panza de puerco ( entero )</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>760</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>最少兩周前預訂</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>380.0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2.1799999999999997</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>828.3999999999999</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>vinagre</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>68.0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
-        <v>68</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>pan caja  de frijol</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>45.0</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="W3" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>WhalMyungSu Carbonated herbs 
-drink box 10 bottles
-Bebida carbonatada de hiervas</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>380.0</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>PIEZAS</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>1140</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Semilla Roja</t>
+          <t>lomo  de cerdo sin hueso (entero)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -696,11 +694,11 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Berenjena </t>
+          <t>lomo  de cerdo sin hueso (entero)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -710,7 +708,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -723,572 +721,97 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>puepura</t>
+          <t xml:space="preserve">pollo entero </t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>110.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>PIEZAS</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>rollo de chocolate</t>
+          <t>Carne molida de puerco</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>PIEZAS</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="W4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>Vino de arroz 500 ml</t>
+          <t xml:space="preserve">Pierna y muslo de pollo </t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>PIEZAS</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Yakult 12pzas</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>75.0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>750</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>soya dulce</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>140.0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="Q5" t="n">
-        <v>140</v>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>最少兩周前預訂</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>380.0</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="W5" t="n">
-        <v>380</v>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>Udon noodles
-Fideos gruesos</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="AC5" t="n">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="G6" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierna y muslo de pollo </t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Work gloves 10 pairsGuantes de trabajo 10 pares</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>125.0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>250</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>pauzi</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="W6" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>calamar</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Wasabi tubeWasab</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>120.0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
-        <v>120</v>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Yakult 12pzas</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>75.0</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="W7" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Camaron crudo</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>556</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Soju box 20 bottlesCaja de soju 20 botellas</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>1300.0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="Q8" t="n">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Coca cola de 3 LITROSS</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>LITROS</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Sal</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Tofu grueso fresco en caja</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>78.0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Panza de res</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>manzana amarillo</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Piña</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Vietnam pho
-Fideos de arroz estilo pho 
-vietnamita poco picante</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>69.0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>PIEZAS</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>483</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
